--- a/src/test/resources/UsersRegistrationData.xlsx
+++ b/src/test/resources/UsersRegistrationData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A152E52-9E2C-409B-9A99-4A174A9E2900}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F10F546-9C95-49C5-B1DA-855237840F38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Gender</t>
   </si>
@@ -76,40 +76,26 @@
     <t>Lee</t>
   </si>
   <si>
-    <t>james.lee@mail.com</t>
-  </si>
-  <si>
-    <t>peter.parker@mail.com</t>
-  </si>
-  <si>
-    <t>kevin.par@mail.com</t>
-  </si>
-  <si>
-    <t>samantha.king@mail.com</t>
-  </si>
-  <si>
-    <t>lisa.ray@mail.com</t>
-  </si>
-  <si>
-    <t>jl123</t>
-  </si>
-  <si>
-    <t>kp123</t>
-  </si>
-  <si>
-    <t>sk123</t>
-  </si>
-  <si>
-    <t>lr123</t>
-  </si>
-  <si>
-    <t>pp123</t>
+    <t>askmail@email.com</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>askmail@ymail.com</t>
+  </si>
+  <si>
+    <t>askmail@gmail.com</t>
+  </si>
+  <si>
+    <t>email@askmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,14 +129,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,149 +434,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BC471129-5BF9-4F04-B899-0D71D245AC1B}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F1AEC3E5-FED9-4CAB-8091-3E4169FE1B7E}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3787E136-8261-4517-B81B-EC434AFF5C74}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{E037208D-5CB4-4259-809D-18B501D179B0}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{D30B136C-31F7-418F-B3EA-3CB313745655}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3FA9CF31-ADDB-4141-AF05-0168390645DE}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F9ECA780-65E1-4A3B-832F-C3096C222C34}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{4824818E-5AEF-4426-8F1D-5B613D329724}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{3466F8B5-5053-4286-8EE1-5C63D03DC6DB}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{C1DD9119-D16B-4BD4-9917-EF0C8F725B51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
